--- a/账号公布/2024年/24.10.12/10.12.xlsx
+++ b/账号公布/2024年/24.10.12/10.12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Master Duel/栗子杯/LIZI-CUP/账号公布/2024年/24.10.12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766C135C-439B-4D4D-A0BD-6588743576A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB83CAC-71E2-E542-8D43-496CA2624F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9040" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{0E0DFE3E-8D23-244A-AE17-832A6632BB35}"/>
+    <workbookView xWindow="9700" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{0E0DFE3E-8D23-244A-AE17-832A6632BB35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>姬特你在干什么</t>
   </si>
@@ -227,9 +227,6 @@
     <t>小墨没头脑</t>
   </si>
   <si>
-    <t>杨159378</t>
-  </si>
-  <si>
     <t>潮流美海</t>
   </si>
   <si>
@@ -246,6 +243,18 @@
   </si>
   <si>
     <t>努力的狗修</t>
+  </si>
+  <si>
+    <t>玉米粒</t>
+  </si>
+  <si>
+    <t>sicheng001</t>
+  </si>
+  <si>
+    <t>卡号：hgvwo36705----evgk07157Q----jd732828@stcail42.cn----46082430</t>
+  </si>
+  <si>
+    <t>科乐美账号:uc85066581,密码:g08701cc6</t>
   </si>
 </sst>
 </file>
@@ -640,7 +649,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -804,7 +813,7 @@
     </row>
     <row r="12" spans="1:4" ht="18">
       <c r="A12" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>27</v>
@@ -818,7 +827,7 @@
     </row>
     <row r="13" spans="1:4" ht="18">
       <c r="A13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>28</v>
@@ -860,7 +869,7 @@
     </row>
     <row r="16" spans="1:4" ht="18">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>31</v>
@@ -874,7 +883,7 @@
     </row>
     <row r="17" spans="1:4" ht="18">
       <c r="A17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>32</v>
@@ -888,7 +897,7 @@
     </row>
     <row r="18" spans="1:4" ht="18">
       <c r="A18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>33</v>
@@ -916,7 +925,7 @@
     </row>
     <row r="20" spans="1:4" ht="18">
       <c r="A20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -930,7 +939,7 @@
     </row>
     <row r="21" spans="1:4" ht="18">
       <c r="A21" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>36</v>
@@ -971,6 +980,15 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
+      <c r="A24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>16</v>
       </c>
